--- a/data/trans_dic/P62A$jubilacion-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,67; 93,8</t>
+          <t>78,85; 93,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,79; 91,27</t>
+          <t>72,96; 92,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,41; 94,75</t>
+          <t>81,72; 94,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,08; 68,47</t>
+          <t>52,63; 67,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,85; 90,11</t>
+          <t>65,27; 89,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,44; 86,73</t>
+          <t>58,85; 86,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,67; 95,77</t>
+          <t>77,62; 95,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,03; 74,48</t>
+          <t>56,05; 74,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>77,79; 90,9</t>
+          <t>77,52; 90,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 87,73</t>
+          <t>70,81; 87,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>83,96; 93,54</t>
+          <t>83,48; 93,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>56,35; 68,49</t>
+          <t>56,58; 68,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,46; 98,88</t>
+          <t>89,42; 98,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,57; 92,75</t>
+          <t>74,99; 92,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,82; 93,05</t>
+          <t>77,44; 93,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,3; 60,54</t>
+          <t>43,81; 61,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,45; 82,95</t>
+          <t>44,7; 83,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,97; 64,89</t>
+          <t>26,73; 65,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,39; 78,48</t>
+          <t>45,28; 78,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,9; 58,92</t>
+          <t>40,9; 59,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,49; 93,56</t>
+          <t>80,36; 93,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,95; 82,41</t>
+          <t>64,56; 81,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,79; 86,58</t>
+          <t>70,3; 86,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,02; 57,93</t>
+          <t>45,2; 58,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,47; 91,12</t>
+          <t>78,85; 90,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,33; 83,25</t>
+          <t>70,24; 83,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,92; 91,34</t>
+          <t>80,88; 91,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,47; 53,12</t>
+          <t>38,4; 53,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,69; 89,71</t>
+          <t>48,21; 87,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,51; 77,93</t>
+          <t>53,48; 79,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,2; 86,51</t>
+          <t>58,62; 86,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,26; 52,47</t>
+          <t>33,61; 53,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,36; 89,09</t>
+          <t>76,91; 89,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,36; 80,22</t>
+          <t>68,49; 80,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,84; 89,15</t>
+          <t>77,91; 88,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,18; 51,38</t>
+          <t>39,21; 51,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,8; 94,45</t>
+          <t>88,67; 94,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,09; 79,33</t>
+          <t>69,46; 79,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,66; 83,99</t>
+          <t>74,81; 84,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,75; 59,81</t>
+          <t>49,82; 59,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,77; 76,01</t>
+          <t>60,06; 77,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,96; 53,01</t>
+          <t>32,85; 53,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,31; 65,12</t>
+          <t>47,67; 65,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,59; 94,04</t>
+          <t>41,24; 93,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,15; 89,17</t>
+          <t>83,66; 89,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,05; 71,05</t>
+          <t>61,69; 71,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>68,69; 77,2</t>
+          <t>68,82; 77,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,92; 87,66</t>
+          <t>50,12; 87,7</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,34; 91,48</t>
+          <t>75,56; 91,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,26; 84,65</t>
+          <t>71,6; 84,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,09; 90,84</t>
+          <t>80,92; 90,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,25; 55,07</t>
+          <t>40,85; 55,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,52; 65,14</t>
+          <t>44,24; 63,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,9; 61,82</t>
+          <t>47,75; 60,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,26; 67,92</t>
+          <t>53,18; 67,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,3; 33,72</t>
+          <t>25,23; 33,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,14; 73,88</t>
+          <t>60,56; 74,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,32; 68,99</t>
+          <t>58,59; 68,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>68,15; 77,44</t>
+          <t>68,86; 77,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,87; 40,09</t>
+          <t>33,0; 40,7</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,0</t>
+          <t>0,0; 53,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,65</t>
+          <t>0,0; 38,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,8</t>
+          <t>0,0; 24,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,23</t>
+          <t>7,0; 14,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,2</t>
+          <t>1,24; 6,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,55</t>
+          <t>0,94; 5,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,26</t>
+          <t>2,96; 8,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 14,38</t>
+          <t>7,33; 14,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,9</t>
+          <t>1,78; 6,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,35</t>
+          <t>1,19; 5,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,41</t>
+          <t>3,14; 7,95</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,52; 91,23</t>
+          <t>86,61; 91,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,4; 79,47</t>
+          <t>73,12; 79,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,73; 85,88</t>
+          <t>80,9; 86,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,01; 55,04</t>
+          <t>48,75; 54,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,11; 43,37</t>
+          <t>35,09; 43,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,2; 39,24</t>
+          <t>32,35; 39,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,57; 47,23</t>
+          <t>39,68; 47,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,4; 71,93</t>
+          <t>30,28; 71,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,5; 69,67</t>
+          <t>64,25; 69,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>55,07; 60,19</t>
+          <t>55,16; 60,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>62,95; 68,0</t>
+          <t>63,05; 68,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>41,3; 67,74</t>
+          <t>41,29; 66,02</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de jubilación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>76365</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58767</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>87806</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63095</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33196</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27452</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43836</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42044</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109561</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>86219</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>131643</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>105140</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>68651; 81683</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>51102; 64793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80235; 93015</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>54527; 70127</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27213; 37478</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21913; 32233</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38525; 47618</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35985; 47867</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99814; 116504</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75966; 94113</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>123394; 138924</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94944; 114888</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73030</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>81538</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68648</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56712</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16541</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16635</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23277</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29857</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>89571</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98174</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91926</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>86569</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>67974; 75160</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71539; 88077</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>61310; 73873</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47215; 65856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11559; 21720</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9979; 24421</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16476; 28423</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24688; 35919</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81867; 95439</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>85680; 108733</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>81240; 100271</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75989; 97623</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>101832</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>142644</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>150372</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60236</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15400</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39476</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36525</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22167</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>117232</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>182121</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>186898</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82403</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>93333; 107701</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>130004; 154355</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>140554; 158898</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50354; 70486</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10234; 18629</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31515; 46559</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28771; 42532</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17353; 27742</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>107363; 124972</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>167136; 195870</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>173624; 197156</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>71657; 93268</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>332898</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>260885</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>276239</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>161317</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>77469</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>49720</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82349</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>260024</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>410368</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>310605</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>358588</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>421342</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>320642; 341723</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>242982; 277053</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>258634; 291039</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>147034; 175126</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67879; 87684</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38054; 61675</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68919; 95384</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>136687; 311237</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>397089; 424444</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>287261; 331928</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>337404; 377591</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>314009; 549481</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69594</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>119881</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>167296</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67774</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>54663</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>123475</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>125531</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>65012</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>124257</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>243356</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>292827</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>132786</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>62491; 75519</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>109332; 129347</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>156728; 175530</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>57632; 78455</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>44750; 64686</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>108178; 137729</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>109654; 139290</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55876; 74105</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>111348; 137186</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>222210; 261390</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>275361; 311093</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>119647; 147543</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27863</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8256</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6693</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10017</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>29629</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>10398</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6693</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10538</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5554</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6217</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1752</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2699</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19125; 39609</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3343; 17140</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2346; 12999</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5807; 16354</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20785; 41323</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5073; 18746</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3062; 13771</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6497; 16455</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>655485</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>665857</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>750362</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>409655</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>225132</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>265016</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>318213</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>429121</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>880617</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>930873</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1068575</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>838777</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>637471; 671802</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>635496; 690127</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>727248; 773576</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>384935; 432983</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>202158; 248046</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>241008; 292758</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>291483; 347033</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>280137; 661775</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>843049; 911975</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>890366; 971383</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1030013; 1112073</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>708049; 1132076</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P62A$jubilacion-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
